--- a/data.xlsx
+++ b/data.xlsx
@@ -1,131 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone </t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>p11</t>
-  </si>
-  <si>
-    <t>p12</t>
-  </si>
-  <si>
-    <t>p13</t>
-  </si>
-  <si>
-    <t>p14</t>
-  </si>
-  <si>
-    <t>p15</t>
-  </si>
-  <si>
-    <t>p16</t>
-  </si>
-  <si>
-    <t>p17</t>
-  </si>
-  <si>
-    <t>p18</t>
-  </si>
-  <si>
-    <t>p19</t>
-  </si>
-  <si>
-    <t>p20</t>
-  </si>
-  <si>
-    <t>p21</t>
-  </si>
-  <si>
-    <t>p22</t>
-  </si>
-  <si>
-    <t>p23</t>
-  </si>
-  <si>
-    <t>p24</t>
-  </si>
-  <si>
-    <t>p25</t>
-  </si>
-  <si>
-    <t>p26</t>
-  </si>
-  <si>
-    <t>p27</t>
-  </si>
-  <si>
-    <t>p28</t>
-  </si>
-  <si>
-    <t>p29</t>
-  </si>
-  <si>
-    <t>p30</t>
+    <t xml:space="preserve">ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +161,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -145,64 +169,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -210,603 +254,502 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>9000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>9000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>9000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>9000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>9000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>9000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>9000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>9000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>9000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>9000000010</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>9000000011</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>9000000012</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>9000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>9000000014</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>9000000015</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>9000000016</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>9000000017</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>9000000018</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>9000000019</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>9000000020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>9000000021</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>9000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>9000000023</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>9000000024</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>9000000025</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>9000000026</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>9000000027</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>9000000028</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>9000000029</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>9000000030</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>